--- a/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
+++ b/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jneng\AppData\Roaming\pyRevit\Extensions\Bimacon.extension\Bimacon.tab\Imagens_Bimacon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documentos\GitHub\Plugins\Bimacon.tab\Imagens_Bimacon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA3C74-3561-428D-B802-34570239BF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B14D6-AC61-4538-AD1B-ECD357C8F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E186D5EC-6E8A-4EDD-942E-908D7E29C940}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="360">
   <si>
     <t>Ar Condicionado Split Evaporadora</t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t>Bimacon_CxPassAlta.png</t>
+  </si>
+  <si>
+    <t>Bimacon_LumCirc.png</t>
   </si>
 </sst>
 </file>
@@ -1959,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CFB9D9-9EAC-4AA6-9E92-FF4CE3C998BC}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +2978,7 @@
         <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E44">
         <v>5</v>

--- a/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
+++ b/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documentos\GitHub\Plugins\Bimacon.tab\Imagens_Bimacon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC5745-C14A-4D23-9C4A-B8ECB8604E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685AD29B-C3BF-474E-9AF3-D218363A9ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="22110" windowHeight="11295" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMBOLOGIA ELÉTRICA EXPORTAR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="481">
   <si>
     <t>Ar Condicionado Split Evaporadora</t>
   </si>
@@ -1460,6 +1460,9 @@
   </si>
   <si>
     <t>Bimacon_TomHDMIAlta.png</t>
+  </si>
+  <si>
+    <t>Bimacon_LumFitaLED.png</t>
   </si>
 </sst>
 </file>
@@ -2323,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E18EA-963A-44A3-BA40-8F99514D1165}">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>480</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>42</v>

--- a/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
+++ b/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Biblioteca\Documentos\GitHub\Plugins\Bimacon.tab\Imagens_Bimacon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25691FE2-4E69-43E0-8FAA-B3B4B42E70DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B44D7C-34AA-41B5-A400-5D0E0045F2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMBOLOGIA ELÉTRICA EXPORTAR" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>Bimacon_CxPassBaixa_4x4.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Cx passagem com tampa cega, a 120cm do piso, em caixa 4''x2'' </t>
-  </si>
-  <si>
     <t>Bimacon_CxPassMedia_4x2.png</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Bimacon_CxPassBaixaHor_4x2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Cx passagem Horizontal com tampa cega, a 120cm do piso, em caixa 4''x2'' </t>
-  </si>
-  <si>
     <t>Bimacon_CxPassMediaHor_4x2.png</t>
   </si>
   <si>
@@ -1592,6 +1586,12 @@
   </si>
   <si>
     <t>Bimacon__Cond_TomMedia20AHor.png</t>
+  </si>
+  <si>
+    <t>Cx passagem com tampa cega, a 120cm do piso, em caixa 4''x2''</t>
+  </si>
+  <si>
+    <t>Cx passagem Horizontal com tampa cega, a 120cm do piso, em caixa 4''x2''</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2559,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -2614,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2782,10 +2782,10 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2808,10 +2808,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2834,10 +2834,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2863,10 +2863,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2892,10 +2892,10 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2915,97 +2915,97 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
         <v>50</v>
       </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
@@ -3016,25 +3016,25 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
@@ -3045,25 +3045,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>523</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
@@ -3074,541 +3074,541 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>428</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
-        <v>430</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" t="s">
-        <v>72</v>
-      </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>429</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
         <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>431</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" t="s">
         <v>85</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>86</v>
-      </c>
-      <c r="G28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
       <c r="D29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" t="s">
         <v>456</v>
       </c>
-      <c r="B34" t="s">
-        <v>456</v>
-      </c>
-      <c r="C34" t="s">
-        <v>458</v>
-      </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D39" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E39">
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E41">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>97</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>22</v>
@@ -3616,579 +3616,579 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E49">
         <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" t="s">
-        <v>124</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
         <v>131</v>
       </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>133</v>
-      </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
         <v>135</v>
-      </c>
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" t="s">
-        <v>137</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
         <v>140</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>141</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>142</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" t="s">
         <v>143</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
         <v>146</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>148</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" t="s">
         <v>149</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" t="s">
-        <v>150</v>
-      </c>
-      <c r="H55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
         <v>152</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>153</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>154</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" t="s">
         <v>155</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
         <v>158</v>
-      </c>
-      <c r="C57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>160</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" t="s">
         <v>162</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>164</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s">
         <v>165</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
         <v>168</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>169</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
         <v>170</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" t="s">
         <v>171</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" t="s">
-        <v>172</v>
-      </c>
-      <c r="H59" t="s">
-        <v>94</v>
-      </c>
-      <c r="I59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
         <v>180</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>181</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
         <v>182</v>
-      </c>
-      <c r="D63" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>172</v>
-      </c>
-      <c r="G63" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63" t="s">
-        <v>94</v>
-      </c>
-      <c r="I63" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E64">
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
         <v>187</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>188</v>
-      </c>
-      <c r="C65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" t="s">
-        <v>190</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" t="s">
         <v>193</v>
-      </c>
-      <c r="C66" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" t="s">
-        <v>195</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68">
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E69">
         <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
         <v>202</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>203</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
         <v>204</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" t="s">
         <v>205</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>206</v>
-      </c>
-      <c r="G70" t="s">
-        <v>206</v>
-      </c>
-      <c r="H70" t="s">
-        <v>94</v>
-      </c>
-      <c r="I70" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D71" t="s">
         <v>208</v>
-      </c>
-      <c r="C71" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" t="s">
-        <v>210</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" t="s">
         <v>211</v>
-      </c>
-      <c r="C72" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" t="s">
-        <v>213</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
         <v>215</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
         <v>217</v>
       </c>
-      <c r="D73" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>219</v>
-      </c>
       <c r="G73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H73" t="s">
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -4199,10 +4199,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -4227,549 +4227,549 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" t="s">
         <v>236</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>237</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
         <v>238</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
+        <v>238</v>
+      </c>
+      <c r="H81" t="s">
+        <v>227</v>
+      </c>
+      <c r="I81" t="s">
         <v>239</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>240</v>
-      </c>
-      <c r="G81" t="s">
-        <v>240</v>
-      </c>
-      <c r="H81" t="s">
-        <v>229</v>
-      </c>
-      <c r="I81" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I82" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I83" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E84">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E85">
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E86">
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" t="s">
+        <v>434</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
         <v>249</v>
       </c>
-      <c r="B87" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" t="s">
-        <v>250</v>
-      </c>
-      <c r="D87" t="s">
-        <v>436</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>251</v>
-      </c>
       <c r="H87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E89">
         <v>5</v>
       </c>
       <c r="H89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E90">
         <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E91">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E92">
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="s">
+        <v>442</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
         <v>260</v>
       </c>
-      <c r="B95" t="s">
+      <c r="G95" t="s">
         <v>260</v>
       </c>
-      <c r="C95" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" t="s">
-        <v>444</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>262</v>
-      </c>
-      <c r="G95" t="s">
-        <v>262</v>
-      </c>
       <c r="H95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" t="s">
+        <v>443</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
         <v>260</v>
       </c>
-      <c r="B96" t="s">
+      <c r="G96" t="s">
         <v>260</v>
       </c>
-      <c r="C96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" t="s">
-        <v>445</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>262</v>
-      </c>
-      <c r="G96" t="s">
-        <v>262</v>
-      </c>
       <c r="H96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>262</v>
+      </c>
+      <c r="D97" t="s">
+        <v>444</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
         <v>260</v>
       </c>
-      <c r="B97" t="s">
+      <c r="G97" t="s">
         <v>260</v>
       </c>
-      <c r="C97" t="s">
-        <v>264</v>
-      </c>
-      <c r="D97" t="s">
-        <v>446</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>262</v>
-      </c>
-      <c r="G97" t="s">
-        <v>262</v>
-      </c>
       <c r="H97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D98" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I98" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" t="s">
         <v>269</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
+        <v>445</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
         <v>270</v>
       </c>
-      <c r="C99" t="s">
+      <c r="G99" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" t="s">
         <v>271</v>
       </c>
-      <c r="D99" t="s">
-        <v>447</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="I99" t="s">
         <v>272</v>
-      </c>
-      <c r="G99" t="s">
-        <v>272</v>
-      </c>
-      <c r="H99" t="s">
-        <v>273</v>
-      </c>
-      <c r="I99" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" t="s">
         <v>275</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
+        <v>446</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
         <v>276</v>
       </c>
-      <c r="C100" t="s">
+      <c r="G100" t="s">
+        <v>276</v>
+      </c>
+      <c r="H100" t="s">
+        <v>271</v>
+      </c>
+      <c r="I100" t="s">
         <v>277</v>
-      </c>
-      <c r="D100" t="s">
-        <v>448</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>278</v>
-      </c>
-      <c r="G100" t="s">
-        <v>278</v>
-      </c>
-      <c r="H100" t="s">
-        <v>273</v>
-      </c>
-      <c r="I100" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C101" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E101">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H101" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -4780,1129 +4780,1129 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E103">
         <v>39</v>
       </c>
       <c r="H103" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" t="s">
         <v>291</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>292</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
         <v>293</v>
       </c>
-      <c r="D105" t="s">
+      <c r="G105" t="s">
+        <v>293</v>
+      </c>
+      <c r="H105" t="s">
         <v>294</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="I105" t="s">
         <v>295</v>
-      </c>
-      <c r="G105" t="s">
-        <v>295</v>
-      </c>
-      <c r="H105" t="s">
-        <v>296</v>
-      </c>
-      <c r="I105" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" t="s">
         <v>298</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>299</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
         <v>300</v>
       </c>
-      <c r="D106" t="s">
+      <c r="G106" t="s">
+        <v>300</v>
+      </c>
+      <c r="H106" t="s">
+        <v>294</v>
+      </c>
+      <c r="I106" t="s">
         <v>301</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>302</v>
-      </c>
-      <c r="G106" t="s">
-        <v>302</v>
-      </c>
-      <c r="H106" t="s">
-        <v>296</v>
-      </c>
-      <c r="I106" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B107" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" t="s">
         <v>304</v>
       </c>
-      <c r="C107" t="s">
-        <v>305</v>
-      </c>
-      <c r="D107" t="s">
-        <v>306</v>
-      </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I107" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" t="s">
         <v>307</v>
       </c>
-      <c r="C108" t="s">
-        <v>308</v>
-      </c>
-      <c r="D108" t="s">
-        <v>309</v>
-      </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I108" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D110" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
       <c r="H110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D111" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="H111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
       <c r="H112" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
       <c r="H113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="H114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" t="s">
         <v>322</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>323</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
         <v>324</v>
       </c>
-      <c r="D115" t="s">
-        <v>325</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
-        <v>326</v>
-      </c>
       <c r="G115" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I115" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" t="s">
+        <v>325</v>
+      </c>
+      <c r="C116" t="s">
+        <v>326</v>
+      </c>
+      <c r="D116" t="s">
         <v>327</v>
       </c>
-      <c r="B116" t="s">
-        <v>327</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
         <v>328</v>
       </c>
-      <c r="D116" t="s">
-        <v>329</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>330</v>
-      </c>
       <c r="G116" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H116" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I116" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E117">
         <v>30</v>
       </c>
       <c r="H117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G118" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D119" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E119">
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B120" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C120" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D120" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G120" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E121">
         <v>31</v>
       </c>
       <c r="H121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D122" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G122" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H122" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I122" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E123">
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I123" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B124" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C124" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D124" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H124" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I124" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>464</v>
+      </c>
+      <c r="B125" t="s">
+        <v>464</v>
+      </c>
+      <c r="C125" t="s">
         <v>466</v>
       </c>
-      <c r="B125" t="s">
-        <v>466</v>
-      </c>
-      <c r="C125" t="s">
-        <v>468</v>
-      </c>
       <c r="D125" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B126" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C126" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D126" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G126" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H126" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I126" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B127" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C127" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D127" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H127" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I127" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B128" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D128" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B129" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C129" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D129" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H129" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I129" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B130" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C130" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D130" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H130" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I130" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B131" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C131" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D131" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H131" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I131" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B132" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C132" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D132" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H132" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I132" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D133" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E133">
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H133" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I133" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B134" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C134" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D134" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H134" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I134" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D135" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E135">
         <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B136" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C136" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D136" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I136" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B137" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C137" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D137" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I137" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B138" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D138" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H138" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I138" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B139" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C139" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D139" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H139" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I139" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B140" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C140" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D140" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B141" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C141" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D141" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H141" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I141" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B142" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D142" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I142" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B143" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C143" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D143" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H143" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I143" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B144" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D144" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G144" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H144" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I144" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B145" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C145" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D145" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H145" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I145" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B146" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C146" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D146" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G146" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H146" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I146" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B147" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C147" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D147" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H147" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I147" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D148" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E148">
         <v>5</v>
@@ -5910,24 +5910,24 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D149" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E149">
         <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D150" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E150">
         <v>5</v>
@@ -5935,24 +5935,24 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D151" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E151">
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D152" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -5960,633 +5960,633 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" t="s">
+        <v>355</v>
+      </c>
+      <c r="C153" t="s">
         <v>356</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>357</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
         <v>358</v>
       </c>
-      <c r="D153" t="s">
+      <c r="G153" t="s">
+        <v>358</v>
+      </c>
+      <c r="H153" t="s">
+        <v>347</v>
+      </c>
+      <c r="I153" t="s">
         <v>359</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" t="s">
-        <v>360</v>
-      </c>
-      <c r="G153" t="s">
-        <v>360</v>
-      </c>
-      <c r="H153" t="s">
-        <v>349</v>
-      </c>
-      <c r="I153" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>360</v>
+      </c>
+      <c r="B154" t="s">
+        <v>360</v>
+      </c>
+      <c r="C154" t="s">
+        <v>361</v>
+      </c>
+      <c r="D154" t="s">
+        <v>450</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
         <v>362</v>
       </c>
-      <c r="B154" t="s">
+      <c r="G154" t="s">
         <v>362</v>
       </c>
-      <c r="C154" t="s">
-        <v>363</v>
-      </c>
-      <c r="D154" t="s">
-        <v>452</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" t="s">
-        <v>364</v>
-      </c>
-      <c r="G154" t="s">
-        <v>364</v>
-      </c>
       <c r="H154" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I154" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>360</v>
+      </c>
+      <c r="B155" t="s">
+        <v>360</v>
+      </c>
+      <c r="C155" t="s">
+        <v>363</v>
+      </c>
+      <c r="D155" t="s">
+        <v>451</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
         <v>362</v>
       </c>
-      <c r="B155" t="s">
+      <c r="G155" t="s">
         <v>362</v>
       </c>
-      <c r="C155" t="s">
-        <v>365</v>
-      </c>
-      <c r="D155" t="s">
-        <v>453</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155" t="s">
-        <v>364</v>
-      </c>
-      <c r="G155" t="s">
-        <v>364</v>
-      </c>
       <c r="H155" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I155" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>360</v>
+      </c>
+      <c r="B156" t="s">
+        <v>360</v>
+      </c>
+      <c r="C156" t="s">
+        <v>364</v>
+      </c>
+      <c r="D156" t="s">
+        <v>452</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
         <v>362</v>
       </c>
-      <c r="B156" t="s">
+      <c r="G156" t="s">
         <v>362</v>
       </c>
-      <c r="C156" t="s">
-        <v>366</v>
-      </c>
-      <c r="D156" t="s">
-        <v>454</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" t="s">
-        <v>364</v>
-      </c>
-      <c r="G156" t="s">
-        <v>364</v>
-      </c>
       <c r="H156" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I156" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>365</v>
+      </c>
+      <c r="B157" t="s">
+        <v>366</v>
+      </c>
+      <c r="C157" t="s">
         <v>367</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>368</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
         <v>369</v>
       </c>
-      <c r="D157" t="s">
+      <c r="G157" t="s">
+        <v>369</v>
+      </c>
+      <c r="H157" t="s">
         <v>370</v>
       </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="I157" t="s">
         <v>371</v>
-      </c>
-      <c r="G157" t="s">
-        <v>371</v>
-      </c>
-      <c r="H157" t="s">
-        <v>372</v>
-      </c>
-      <c r="I157" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B158" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C158" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D158" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E158">
         <v>2</v>
       </c>
       <c r="F158" t="s">
+        <v>369</v>
+      </c>
+      <c r="G158" t="s">
+        <v>369</v>
+      </c>
+      <c r="H158" t="s">
+        <v>370</v>
+      </c>
+      <c r="I158" t="s">
         <v>371</v>
-      </c>
-      <c r="G158" t="s">
-        <v>371</v>
-      </c>
-      <c r="H158" t="s">
-        <v>372</v>
-      </c>
-      <c r="I158" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B159" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C159" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D159" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
+        <v>369</v>
+      </c>
+      <c r="G159" t="s">
+        <v>369</v>
+      </c>
+      <c r="H159" t="s">
+        <v>370</v>
+      </c>
+      <c r="I159" t="s">
         <v>371</v>
-      </c>
-      <c r="G159" t="s">
-        <v>371</v>
-      </c>
-      <c r="H159" t="s">
-        <v>372</v>
-      </c>
-      <c r="I159" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B160" t="s">
+        <v>376</v>
+      </c>
+      <c r="C160" t="s">
+        <v>377</v>
+      </c>
+      <c r="D160" t="s">
         <v>378</v>
       </c>
-      <c r="C160" t="s">
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
         <v>379</v>
       </c>
-      <c r="D160" t="s">
+      <c r="G160" t="s">
+        <v>379</v>
+      </c>
+      <c r="H160" t="s">
+        <v>370</v>
+      </c>
+      <c r="I160" t="s">
         <v>380</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="s">
-        <v>381</v>
-      </c>
-      <c r="G160" t="s">
-        <v>381</v>
-      </c>
-      <c r="H160" t="s">
-        <v>372</v>
-      </c>
-      <c r="I160" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B161" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C161" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D161" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H161" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I161" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B162" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C162" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D162" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G162" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H162" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I162" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B163" t="s">
+        <v>385</v>
+      </c>
+      <c r="C163" t="s">
+        <v>386</v>
+      </c>
+      <c r="D163" t="s">
         <v>387</v>
       </c>
-      <c r="C163" t="s">
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
         <v>388</v>
       </c>
-      <c r="D163" t="s">
+      <c r="G163" t="s">
+        <v>388</v>
+      </c>
+      <c r="H163" t="s">
+        <v>370</v>
+      </c>
+      <c r="I163" t="s">
         <v>389</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163" t="s">
-        <v>390</v>
-      </c>
-      <c r="G163" t="s">
-        <v>390</v>
-      </c>
-      <c r="H163" t="s">
-        <v>372</v>
-      </c>
-      <c r="I163" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B164" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C164" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D164" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G164" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H164" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I164" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B165" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C165" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D165" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G165" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H165" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I165" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D166" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H166" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I166" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D167" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E167">
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I167" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C168" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D168" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H168" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I168" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D169" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E169">
         <v>52</v>
       </c>
       <c r="H169" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I169" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>402</v>
+      </c>
+      <c r="B170" t="s">
+        <v>402</v>
+      </c>
+      <c r="C170" t="s">
+        <v>403</v>
+      </c>
+      <c r="D170" t="s">
         <v>404</v>
       </c>
-      <c r="B170" t="s">
-        <v>404</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
         <v>405</v>
       </c>
-      <c r="D170" t="s">
-        <v>406</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>407</v>
-      </c>
       <c r="G170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H170" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I170" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D171" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E171">
         <v>12</v>
       </c>
       <c r="H171" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I171" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B172" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C172" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D172" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G172" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H172" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I172" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>410</v>
+      </c>
+      <c r="B173" t="s">
+        <v>410</v>
+      </c>
+      <c r="C173" t="s">
+        <v>411</v>
+      </c>
+      <c r="D173" t="s">
         <v>412</v>
       </c>
-      <c r="B173" t="s">
-        <v>412</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
         <v>413</v>
       </c>
-      <c r="D173" t="s">
-        <v>414</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
-        <v>415</v>
-      </c>
       <c r="G173" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H173" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I173" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>414</v>
+      </c>
+      <c r="B174" t="s">
+        <v>414</v>
+      </c>
+      <c r="C174" t="s">
+        <v>415</v>
+      </c>
+      <c r="D174" t="s">
         <v>416</v>
-      </c>
-      <c r="B174" t="s">
-        <v>416</v>
-      </c>
-      <c r="C174" t="s">
-        <v>417</v>
-      </c>
-      <c r="D174" t="s">
-        <v>418</v>
       </c>
       <c r="E174">
         <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G174" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H174" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I174" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B175" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C175" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D175" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G175" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H175" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I175" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
+++ b/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jneng\AppData\Roaming\pyRevit\Extensions\Bimacon.extension\Bimacon.tab\Imagens_Bimacon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98385332-D172-4D9F-8F81-B3CF29602F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B713A12C-C69C-4530-9531-2CDA3F94CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMBOLOGIA ELÉTRICA EXPORTAR" sheetId="1" r:id="rId1"/>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E18EA-963A-44A3-BA40-8F99514D1165}">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
+++ b/Bimacon.tab/Imagens_Bimacon/SIMBOLOGIA ELÉTRICA EXPORTAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jneng\AppData\Roaming\pyRevit\Extensions\Bimacon.extension\Bimacon.tab\Imagens_Bimacon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B713A12C-C69C-4530-9531-2CDA3F94CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED922B83-13F8-4E19-B997-3B0F36909150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{684D25ED-12FF-40E1-9C13-B7AF0CA9AF8D}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMBOLOGIA ELÉTRICA EXPORTAR" sheetId="1" r:id="rId1"/>
@@ -1588,9 +1588,6 @@
     <t>Chave de Bloqueio</t>
   </si>
   <si>
-    <t>Bimacon_TomBaixaBipolar</t>
-  </si>
-  <si>
     <t>Bimacon_SeccionadorAlta.png</t>
   </si>
   <si>
@@ -1598,6 +1595,9 @@
   </si>
   <si>
     <t>Bimacon_SeccionadorMedia.png</t>
+  </si>
+  <si>
+    <t>Bimacon_TomBaixaBipolar.png</t>
   </si>
 </sst>
 </file>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E18EA-963A-44A3-BA40-8F99514D1165}">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D178"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,7 +4817,7 @@
         <v>510</v>
       </c>
       <c r="D106" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -4840,7 +4840,7 @@
         <v>512</v>
       </c>
       <c r="D107" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -4863,7 +4863,7 @@
         <v>513</v>
       </c>
       <c r="D108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -5407,7 +5407,7 @@
         <v>489</v>
       </c>
       <c r="D131" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E131">
         <v>2</v>
